--- a/rozpis.xlsx
+++ b/rozpis.xlsx
@@ -985,7 +985,7 @@
     <row r="3" ht="56.25" customHeight="1">
       <c r="A3" s="51" t="inlineStr">
         <is>
-          <t>16.09.2024</t>
+          <t>23.09.2024</t>
         </is>
       </c>
       <c r="B3" s="52" t="inlineStr">
@@ -995,7 +995,7 @@
       </c>
       <c r="C3" s="9" t="inlineStr">
         <is>
-          <t>11:15(RHO) 18:45(SUF) 18:55(RHO) 20:15(TGD)</t>
+          <t>11:15(RHO) 18:45(SUF) 18:55(RHO)</t>
         </is>
       </c>
       <c r="D3" s="53" t="inlineStr">
@@ -1064,7 +1064,7 @@
       <c r="B5" s="60" t="n"/>
       <c r="C5" s="12" t="inlineStr">
         <is>
-          <t>08:45 16:15 16:25 18:15</t>
+          <t>08:45 16:15 16:25</t>
         </is>
       </c>
       <c r="D5" s="61" t="n"/>
@@ -1150,7 +1150,7 @@
     <row r="7" ht="43.5" customHeight="1">
       <c r="A7" s="51" t="inlineStr">
         <is>
-          <t>17.09.2024</t>
+          <t>24.09.2024</t>
         </is>
       </c>
       <c r="B7" s="52" t="inlineStr">
@@ -1310,7 +1310,7 @@
     <row r="11" ht="39" customHeight="1">
       <c r="A11" s="51" t="inlineStr">
         <is>
-          <t>18.09.2024</t>
+          <t>25.09.2024</t>
         </is>
       </c>
       <c r="B11" s="52" t="inlineStr">
@@ -1498,7 +1498,7 @@
     <row r="16" ht="37.5" customHeight="1">
       <c r="A16" s="51" t="inlineStr">
         <is>
-          <t>19.09.2024</t>
+          <t>26.09.2024</t>
         </is>
       </c>
       <c r="B16" s="52" t="inlineStr">
@@ -1686,7 +1686,7 @@
     <row r="21" ht="33" customHeight="1">
       <c r="A21" s="51" t="inlineStr">
         <is>
-          <t>20.09.2024</t>
+          <t>27.09.2024</t>
         </is>
       </c>
       <c r="B21" s="52" t="inlineStr">
@@ -1846,7 +1846,7 @@
     <row r="25" ht="33.75" customHeight="1">
       <c r="A25" s="51" t="inlineStr">
         <is>
-          <t>21.09.2024</t>
+          <t>28.09.2024</t>
         </is>
       </c>
       <c r="B25" s="52" t="inlineStr">
@@ -2006,7 +2006,7 @@
     <row r="29" ht="30.75" customHeight="1">
       <c r="A29" s="51" t="inlineStr">
         <is>
-          <t>22.09.2024</t>
+          <t>29.09.2024</t>
         </is>
       </c>
       <c r="B29" s="52" t="inlineStr">
@@ -2016,7 +2016,7 @@
       </c>
       <c r="C29" s="19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - () 08:35(GRO) 12:30(HER) 18:50(HER) 19:30(ALC)  - ()</t>
+          <t xml:space="preserve"> - () 08:35(GRO) 18:50(HER) 19:30(ALC)</t>
         </is>
       </c>
       <c r="D29" s="54" t="n"/>
@@ -2080,7 +2080,7 @@
       <c r="B31" s="60" t="n"/>
       <c r="C31" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -  06:35 10:00 16:20 17:30  - </t>
+          <t>None 06:35 16:20 17:30</t>
         </is>
       </c>
       <c r="D31" s="61" t="n"/>
@@ -29375,7 +29375,7 @@
     <row r="3" ht="56.25" customHeight="1">
       <c r="A3" s="51" t="inlineStr">
         <is>
-          <t>23.09.2024</t>
+          <t>30.09.2024</t>
         </is>
       </c>
       <c r="B3" s="52" t="inlineStr">
@@ -29385,7 +29385,7 @@
       </c>
       <c r="C3" s="9" t="inlineStr">
         <is>
-          <t>11:15(RHO) 18:45(SUF) 18:55(RHO)</t>
+          <t>18:45(SUF) 18:55(RHO)</t>
         </is>
       </c>
       <c r="D3" s="53" t="inlineStr">
@@ -29454,7 +29454,7 @@
       <c r="B5" s="60" t="n"/>
       <c r="C5" s="12" t="inlineStr">
         <is>
-          <t>08:45 16:15 16:25</t>
+          <t>16:15 16:25</t>
         </is>
       </c>
       <c r="D5" s="61" t="n"/>
@@ -29540,7 +29540,7 @@
     <row r="7" ht="43.5" customHeight="1">
       <c r="A7" s="51" t="inlineStr">
         <is>
-          <t>24.09.2024</t>
+          <t>01.10.2024</t>
         </is>
       </c>
       <c r="B7" s="52" t="inlineStr">
@@ -29550,7 +29550,7 @@
       </c>
       <c r="C7" s="9" t="inlineStr">
         <is>
-          <t>04:55(RMF) 12:50(AYT) 16:35(MIR)  - ()</t>
+          <t>04:55(RMF)  - ()</t>
         </is>
       </c>
       <c r="D7" s="54" t="n"/>
@@ -29614,7 +29614,7 @@
       <c r="B9" s="60" t="n"/>
       <c r="C9" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">02:25 10:20 14:05  - </t>
+          <t>02:25  -</t>
         </is>
       </c>
       <c r="D9" s="61" t="n"/>
@@ -29700,7 +29700,7 @@
     <row r="11" ht="39" customHeight="1">
       <c r="A11" s="51" t="inlineStr">
         <is>
-          <t>25.09.2024</t>
+          <t>02.10.2024</t>
         </is>
       </c>
       <c r="B11" s="52" t="inlineStr">
@@ -29710,7 +29710,7 @@
       </c>
       <c r="C11" s="9" t="inlineStr">
         <is>
-          <t>03:55(AYT) 11:15(PMI) 18:45(BJV) 20:00(AYT)</t>
+          <t>03:55(AYT) None()</t>
         </is>
       </c>
       <c r="D11" s="54" t="n"/>
@@ -29774,7 +29774,7 @@
       <c r="B13" s="60" t="n"/>
       <c r="C13" s="12" t="inlineStr">
         <is>
-          <t>01:25 08:45 16:15 17:30</t>
+          <t xml:space="preserve">01:25  - </t>
         </is>
       </c>
       <c r="D13" s="61" t="n"/>
@@ -29888,7 +29888,7 @@
     <row r="16" ht="37.5" customHeight="1">
       <c r="A16" s="51" t="inlineStr">
         <is>
-          <t>26.09.2024</t>
+          <t>03.10.2024</t>
         </is>
       </c>
       <c r="B16" s="52" t="inlineStr">
@@ -29898,7 +29898,7 @@
       </c>
       <c r="C16" s="9" t="inlineStr">
         <is>
-          <t>03:15(HRG) 09:15(ALC) 09:20(GRO) 17:50(HER)</t>
+          <t>09:15(ALC) 09:20(GRO)</t>
         </is>
       </c>
       <c r="D16" s="54" t="n"/>
@@ -29962,7 +29962,7 @@
       <c r="B18" s="60" t="n"/>
       <c r="C18" s="12" t="inlineStr">
         <is>
-          <t>00:45 07:15 07:20 15:20</t>
+          <t>07:15 07:20</t>
         </is>
       </c>
       <c r="D18" s="61" t="n"/>
@@ -30076,7 +30076,7 @@
     <row r="21" ht="33" customHeight="1">
       <c r="A21" s="51" t="inlineStr">
         <is>
-          <t>27.09.2024</t>
+          <t>06.10.2024</t>
         </is>
       </c>
       <c r="B21" s="52" t="inlineStr">
@@ -30086,7 +30086,7 @@
       </c>
       <c r="C21" s="9" t="inlineStr">
         <is>
-          <t>05:00(KGS) 13:00(MIR)</t>
+          <t>19:30(ALC) 20:50(GRO)</t>
         </is>
       </c>
       <c r="D21" s="54" t="n"/>
@@ -30150,7 +30150,7 @@
       <c r="B23" s="60" t="n"/>
       <c r="C23" s="12" t="inlineStr">
         <is>
-          <t>02:30 10:30</t>
+          <t>17:30 18:50</t>
         </is>
       </c>
       <c r="D23" s="61" t="n"/>
@@ -30234,21 +30234,13 @@
       <c r="Z24" s="1" t="n"/>
     </row>
     <row r="25" ht="33.75" customHeight="1">
-      <c r="A25" s="51" t="inlineStr">
-        <is>
-          <t>28.09.2024</t>
-        </is>
-      </c>
+      <c r="A25" s="51" t="n"/>
       <c r="B25" s="52" t="inlineStr">
         <is>
           <t>SO</t>
         </is>
       </c>
-      <c r="C25" s="9" t="inlineStr">
-        <is>
-          <t>04:20(CFU) 12:30(AYT) 20:55(AYT)</t>
-        </is>
-      </c>
+      <c r="C25" s="9" t="n"/>
       <c r="D25" s="54" t="n"/>
       <c r="E25" s="54" t="n"/>
       <c r="F25" s="55" t="n"/>
@@ -30308,11 +30300,7 @@
     <row r="27" ht="37.5" customHeight="1" thickBot="1">
       <c r="A27" s="59" t="n"/>
       <c r="B27" s="60" t="n"/>
-      <c r="C27" s="18" t="inlineStr">
-        <is>
-          <t>01:50 10:00 18:25</t>
-        </is>
-      </c>
+      <c r="C27" s="18" t="n"/>
       <c r="D27" s="61" t="n"/>
       <c r="E27" s="61" t="n"/>
       <c r="F27" s="59" t="n"/>
@@ -30394,21 +30382,13 @@
       <c r="Z28" s="1" t="n"/>
     </row>
     <row r="29" ht="30.75" customHeight="1">
-      <c r="A29" s="51" t="inlineStr">
-        <is>
-          <t>29.09.2024</t>
-        </is>
-      </c>
+      <c r="A29" s="51" t="n"/>
       <c r="B29" s="52" t="inlineStr">
         <is>
           <t>NE</t>
         </is>
       </c>
-      <c r="C29" s="19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> - () 08:35(GRO) 18:50(HER) 19:30(ALC)</t>
-        </is>
-      </c>
+      <c r="C29" s="19" t="n"/>
       <c r="D29" s="54" t="n"/>
       <c r="E29" s="54" t="n"/>
       <c r="F29" s="55" t="n"/>
@@ -30468,11 +30448,7 @@
     <row r="31" ht="33.75" customHeight="1" thickBot="1">
       <c r="A31" s="59" t="n"/>
       <c r="B31" s="60" t="n"/>
-      <c r="C31" s="20" t="inlineStr">
-        <is>
-          <t>None 06:35 16:20 17:30</t>
-        </is>
-      </c>
+      <c r="C31" s="20" t="n"/>
       <c r="D31" s="61" t="n"/>
       <c r="E31" s="61" t="n"/>
       <c r="F31" s="59" t="n"/>
